--- a/document/excel_upload_자료/TBL_EXP_BUYER.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_BUYER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB50EEB9-9EB7-4F4E-BB52-0BD2678E5696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA5BBA3-16F2-4AFA-9EDE-8AC5F133591B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,18 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트기업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울시 개포동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>112-33-44567</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +142,61 @@
   </si>
   <si>
     <t>TBL_EXP_BUYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_USER</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 ID</t>
+  </si>
+  <si>
+    <t>고객명</t>
+  </si>
+  <si>
+    <t>전화번호</t>
+  </si>
+  <si>
+    <t>주소</t>
+  </si>
+  <si>
+    <t>사업자번호</t>
+  </si>
+  <si>
+    <t>사용유무</t>
+  </si>
+  <si>
+    <t>삭제유무</t>
+  </si>
+  <si>
+    <t>등록자</t>
+  </si>
+  <si>
+    <t>등록일</t>
+  </si>
+  <si>
+    <t>고객 암호</t>
+  </si>
+  <si>
+    <t>CREATE_DATE:D</t>
+  </si>
+  <si>
+    <t>25FC</t>
+  </si>
+  <si>
+    <t>이오에프씨 주식회사</t>
+  </si>
+  <si>
+    <t>부산시 해운대구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유입경로(지인/소개/DB)
+(FRIEND/INTRODUCTION/DB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,13 +417,19 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -717,31 +766,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62EC3AF-2A49-466E-A4CC-7F079F3A2F81}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="9" width="20.125" customWidth="1"/>
+    <col min="1" max="7" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="60">
+    <row r="2" spans="1:11" ht="24">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -762,9 +815,9 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -783,119 +836,143 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>18</v>
+    <row r="5" spans="1:11" ht="27">
+      <c r="A5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="16">
+        <v>45434</v>
+      </c>
+      <c r="K6" s="1">
         <v>1234</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="16">
+        <v>45434</v>
+      </c>
+      <c r="K7" s="1">
         <v>1234</v>
       </c>
     </row>
@@ -905,5 +982,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>